--- a/app/webroot/img/templates.xlsx
+++ b/app/webroot/img/templates.xlsx
@@ -1,3 +1,2179 @@
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+  <si>
+    <t>US$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sales Report </t>
+  </si>
+  <si>
+    <t>For the month of JUNE 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>DR#</t>
+  </si>
+  <si>
+    <t>APC DR#</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>CUSTOMER</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>SI #</t>
+  </si>
+  <si>
+    <t>SA#</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>Mountview Industrial Complex</t>
+  </si>
+  <si>
+    <t>Sales Report</t>
+  </si>
+  <si>
+    <t>SI#</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Date 
+counter</t>
+  </si>
+  <si>
+    <t>Prepared by:</t>
+  </si>
+  <si>
+    <t>Checked by:</t>
+  </si>
+  <si>
+    <t>Noted by:</t>
+  </si>
+  <si>
+    <t>Amount PHP</t>
+  </si>
+  <si>
+    <t>Acctg</t>
+  </si>
+  <si>
+    <t>SALES REPORT - MARCH 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            </t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Conversion Rate
+ Php44.604=$1 </t>
+  </si>
+  <si>
+    <t>Total Sales</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>TERMS</t>
+  </si>
+  <si>
+    <t>In Php</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>Total VAT for the Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks:   </t>
+  </si>
+  <si>
+    <t>DUE DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          KOU FU PACKAGING CORPORATION</t>
+  </si>
+  <si>
+    <t>KOU FU PACKAGING CORPORATION</t>
+  </si>
+  <si>
+    <t>Lot 3-4 Blk 4  Brgy. Bancal Carmona Cavite</t>
+  </si>
+  <si>
+    <t>Lot 3-4 Blk 4 Brgy. Bancal Carmona Cavite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mountview Industrial Complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Lot 3-4 Blk 4 Mountview Industrial Complex Brgy. Bancal Carmona Cavite</t>
+  </si>
+  <si>
+    <t>Amount USD</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="7">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="168" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="170" formatCode="000000"/>
+  </numFmts>
+  <fonts count="30" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0000FF"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF0000FF"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0066"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFFF0066"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0066"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0000FF"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="10"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="9"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF0000FF"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="4">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="83">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="260">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="21" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="20" fillId="2" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="22" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="2" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="2" borderId="45" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="68" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="72" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="45" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="40" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="40" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="3" borderId="73" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="3" borderId="80" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="2" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="3" borderId="74" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="81" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="2" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="2" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="2" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="3" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="2" borderId="82" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="3" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="22" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="22" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="2" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="2" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="3" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="2" borderId="58" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="2" borderId="60" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="2" borderId="65" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="3" borderId="75" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="2" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="44" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="7">
+    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Currency 2" xfId="2"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_DRSum" xfId="3"/>
+    <cellStyle name="Normal_Php" xfId="4"/>
+    <cellStyle name="Normal_Sheet4" xfId="6"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
